--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_535.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_535.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32607-d77511-Reviews-Motel_6_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Lancaster-Hotels-Motel-6-Lancaster.h998975.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_535.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_535.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,302 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r424517513-Motel_6_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>32607</t>
+  </si>
+  <si>
+    <t>77511</t>
+  </si>
+  <si>
+    <t>424517513</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>Another great stay at this very fine place to stay - especially on business!!</t>
+  </si>
+  <si>
+    <t>I've been here a number of times before (always on business) but that is not to say anything less than I always came having finished off with the challenges of life for the day, but it was always found to have been a great place to stay, and always leaving my stay to move back into the world with a positive, well rested an prepared clean body, yet for another day !!</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r353989638-Motel_6_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>353989638</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>a good night sleep</t>
+  </si>
+  <si>
+    <t>this motel rate's are affordable the staff are great people they have WI-FI, TV rooms are nice and clean close to restaurants and shopping center, movie theater a couple blocks away everything is in walking distance  he 14  freeway only a block away</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r347241101-Motel_6_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>347241101</t>
+  </si>
+  <si>
+    <t>02/12/2016</t>
+  </si>
+  <si>
+    <t>My room was given away</t>
+  </si>
+  <si>
+    <t>I went to Lancaster for a funeral and needed somewhere to stay for 2 nights.  My reservation was confirm for 2 nights and when I check in i advised the front desk.  Me and my kids stayed 1 night and the next night they gave my room away and told me I need to come back the next day to get my stuff when I demanded my things they called   the police.  The police was on my side and made them give my things back.  I am a travel agent and I will never stay here again nor recommend this motel to any of my clients.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experienced Team Member at Motel 6 Lancaster, responded to this reviewResponded February 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2016</t>
+  </si>
+  <si>
+    <t>I went to Lancaster for a funeral and needed somewhere to stay for 2 nights.  My reservation was confirm for 2 nights and when I check in i advised the front desk.  Me and my kids stayed 1 night and the next night they gave my room away and told me I need to come back the next day to get my stuff when I demanded my things they called   the police.  The police was on my side and made them give my things back.  I am a travel agent and I will never stay here again nor recommend this motel to any of my clients.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r303799300-Motel_6_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>303799300</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>Clean and simple.</t>
+  </si>
+  <si>
+    <t>My stay was simple enough. Motel was clean. Very simple accommodations. But for the price fine. Nice and friendly front desk. Bed fairly comfortable. Air was a little noisy but worked well. Close to stores and interstate. A good stay for the price!</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r274927725-Motel_6_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>274927725</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>There is no such thing as a 'non smoking room'</t>
+  </si>
+  <si>
+    <t>We stayed here during the memorial day weekend. Needed a place to stay for a night to continue our going around LA. Even though we were assured our room was non-smoking, it smelt like one - real bad. They had attempted to get rid of the cigarette smell by spraying some air fragrance but failed awefully!If you promise your customer a non-smoking room, ensure they get one.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Lancaster, responded to this reviewResponded May 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here during the memorial day weekend. Needed a place to stay for a night to continue our going around LA. Even though we were assured our room was non-smoking, it smelt like one - real bad. They had attempted to get rid of the cigarette smell by spraying some air fragrance but failed awefully!If you promise your customer a non-smoking room, ensure they get one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r226757366-Motel_6_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>226757366</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>Needs to be updated</t>
+  </si>
+  <si>
+    <t>I stayed here with a friend on 7/18/2014 because I was vacating my home.  I was happy to get a room at last minute that was pet friendly and offered smoking rooms since my friend smoked and had a dog.  The lady at the desk was super friendly, nice and helpful.  The room badly needed updating but was clean.  The air conditioner worked nicely and it was HOT!  There wasn't a swimming pool but there was a restaurant right next door that served a great breakfast.  The bed was very uncomfortable due to either an old or inexpensive mattress. The TV worked great and the price was under $50.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r154796446-Motel_6_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>154796446</t>
+  </si>
+  <si>
+    <t>03/16/2013</t>
+  </si>
+  <si>
+    <t>Rude, nasty, dirty, noisy room.</t>
+  </si>
+  <si>
+    <t>I'm a trucker and stay in many motel 6's. This was by far the worst yet. The noise was awful from the stairways. The manager was rude about the reservation that I and my company had made sure to reserve several times and was told check in was afternoon. That they didn't haves a room after my checking several times on my reservation. Was then told they had a room but it was down for . maintenance. The floor was dirty and nasty. Could not take off my socks to walk around. The room smelled old and mildew. One of the beds looked like it had been sleept in. I was so tired I tried to sleep but was woken up several times by noise from people outside. Then children screaming at the top of their lungs I'm the pool. I need to sleep in the day time because of my hours of service as a driver. Be  aware this motel is awful!MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm a trucker and stay in many motel 6's. This was by far the worst yet. The noise was awful from the stairways. The manager was rude about the reservation that I and my company had made sure to reserve several times and was told check in was afternoon. That they didn't haves a room after my checking several times on my reservation. Was then told they had a room but it was down for . maintenance. The floor was dirty and nasty. Could not take off my socks to walk around. The room smelled old and mildew. One of the beds looked like it had been sleept in. I was so tired I tried to sleep but was woken up several times by noise from people outside. Then children screaming at the top of their lungs I'm the pool. I need to sleep in the day time because of my hours of service as a driver. Be  aware this motel is awful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r152446753-Motel_6_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>152446753</t>
+  </si>
+  <si>
+    <t>02/18/2013</t>
+  </si>
+  <si>
+    <t>Scarry Area</t>
+  </si>
+  <si>
+    <t>We stayed here for the Lancaster State Soccer tournament.   Yikes!    Needed to go on a budget this trip.    This area was scarry.   I think this is the first hotel we have ever stayed in where I felt uncomfortable letting the kids walk around by themselves.   Palmdale is 8 miles away and seemed a little safer.   Of course the price is right if this type of thing doesn't bother you but our standards are a little higher.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r134156899-Motel_6_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>134156899</t>
+  </si>
+  <si>
+    <t>07/11/2012</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>The rooms are Gross. Being a single traveler, the 3 am pounding on my door, scared the crap out of me and the staff just offered to move me. I felt very unsafe. I have stayed at other motel 6 motels with great experiences. There are a lot of week workers who stay there, but also a lot of trash. So if your a guy who just wants to sleep, sleep and get out. but if you have kids you might want to find somewhere else to stay.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r119893444-Motel_6_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>119893444</t>
+  </si>
+  <si>
+    <t>10/30/2011</t>
+  </si>
+  <si>
+    <t>It's the patrons that's the problem</t>
+  </si>
+  <si>
+    <t>We're from sleepy England so places like this I thought only existed in US movies (bad ones).The place was full of dealers, a Hispanic guy had his door open on the landing standing in his underwear for everyone to see walking up the stairs mumbling something I couldnt understand. Walking into the room to be fair was acceptable. Basic and in my view clean. This was an emergency stop for us so didn't expect the Ritz.Constant car alarms, shouting and slamming doors add to the sense of menace and unpleasantness of the stay. If you can I would avoid.The rate was $44(£28) so is cheap</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r114976548-Motel_6_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>114976548</t>
+  </si>
+  <si>
+    <t>07/03/2011</t>
+  </si>
+  <si>
+    <t>The other reviews are correct. Look elsewhere!</t>
+  </si>
+  <si>
+    <t>Everything you read in the previous reviews is accurate. We were headed to Palm Springs from San Simeon and decided to stop for the night around Palmdale. However, by the time we reached Lancaster, we were tired and decided to grab a room there. Big mistake. After a luke-warm reception at the check-in counter and a relatively high rate of $55/night for Motel 6, the first thing we encountered on our way to our room was a guy in a pickup truck in the parking lot BLASTING rap music at full volume and bass. We then saw a guy in dreadlocks come out from a room and it appears by his conversation with the occupant that they had just completed a drug deal. The pool was extremely filthy and when I walked up the stairs to the second level, I saw a girl about 5 years old completely alone standing by the staircase with no adult supervision (similar to what a previous reviewer had described). Our "non-smoking" room was about as smokey as a room could be, and the sink would not drain properly. After dinner, we decided to walk down the street where we saw a woman sitting on her front porch, clearly on drugs, while her toddler son was trying to climb over the front gate. Some of the people in the area looked dangerous seemed to loiter around the hotel and restaurant parking lots. The cherry on...Everything you read in the previous reviews is accurate. We were headed to Palm Springs from San Simeon and decided to stop for the night around Palmdale. However, by the time we reached Lancaster, we were tired and decided to grab a room there. Big mistake. After a luke-warm reception at the check-in counter and a relatively high rate of $55/night for Motel 6, the first thing we encountered on our way to our room was a guy in a pickup truck in the parking lot BLASTING rap music at full volume and bass. We then saw a guy in dreadlocks come out from a room and it appears by his conversation with the occupant that they had just completed a drug deal. The pool was extremely filthy and when I walked up the stairs to the second level, I saw a girl about 5 years old completely alone standing by the staircase with no adult supervision (similar to what a previous reviewer had described). Our "non-smoking" room was about as smokey as a room could be, and the sink would not drain properly. After dinner, we decided to walk down the street where we saw a woman sitting on her front porch, clearly on drugs, while her toddler son was trying to climb over the front gate. Some of the people in the area looked dangerous seemed to loiter around the hotel and restaurant parking lots. The cherry on the top was when we were awakened during the night on three separate occasions to what we believe were the sound of gunshots. The motel next door looked a bit better and seemed to be cheaper, and other parts of Lancaster seemed reasonably clean and safe. However, Palmdale is only a few minutes down the road, and it seems like a much smaller and more rural area (i.e. safer). Unless your standards are extremely low (i.e. you're at home in the ghetto), I would avoid this place at all costs. It's more of the kind of experience I'd expect to find in south-central LA... only it's not. OK, you've been warned.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>Everything you read in the previous reviews is accurate. We were headed to Palm Springs from San Simeon and decided to stop for the night around Palmdale. However, by the time we reached Lancaster, we were tired and decided to grab a room there. Big mistake. After a luke-warm reception at the check-in counter and a relatively high rate of $55/night for Motel 6, the first thing we encountered on our way to our room was a guy in a pickup truck in the parking lot BLASTING rap music at full volume and bass. We then saw a guy in dreadlocks come out from a room and it appears by his conversation with the occupant that they had just completed a drug deal. The pool was extremely filthy and when I walked up the stairs to the second level, I saw a girl about 5 years old completely alone standing by the staircase with no adult supervision (similar to what a previous reviewer had described). Our "non-smoking" room was about as smokey as a room could be, and the sink would not drain properly. After dinner, we decided to walk down the street where we saw a woman sitting on her front porch, clearly on drugs, while her toddler son was trying to climb over the front gate. Some of the people in the area looked dangerous seemed to loiter around the hotel and restaurant parking lots. The cherry on...Everything you read in the previous reviews is accurate. We were headed to Palm Springs from San Simeon and decided to stop for the night around Palmdale. However, by the time we reached Lancaster, we were tired and decided to grab a room there. Big mistake. After a luke-warm reception at the check-in counter and a relatively high rate of $55/night for Motel 6, the first thing we encountered on our way to our room was a guy in a pickup truck in the parking lot BLASTING rap music at full volume and bass. We then saw a guy in dreadlocks come out from a room and it appears by his conversation with the occupant that they had just completed a drug deal. The pool was extremely filthy and when I walked up the stairs to the second level, I saw a girl about 5 years old completely alone standing by the staircase with no adult supervision (similar to what a previous reviewer had described). Our "non-smoking" room was about as smokey as a room could be, and the sink would not drain properly. After dinner, we decided to walk down the street where we saw a woman sitting on her front porch, clearly on drugs, while her toddler son was trying to climb over the front gate. Some of the people in the area looked dangerous seemed to loiter around the hotel and restaurant parking lots. The cherry on the top was when we were awakened during the night on three separate occasions to what we believe were the sound of gunshots. The motel next door looked a bit better and seemed to be cheaper, and other parts of Lancaster seemed reasonably clean and safe. However, Palmdale is only a few minutes down the road, and it seems like a much smaller and more rural area (i.e. safer). Unless your standards are extremely low (i.e. you're at home in the ghetto), I would avoid this place at all costs. It's more of the kind of experience I'd expect to find in south-central LA... only it's not. OK, you've been warned.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r18590932-Motel_6_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>18590932</t>
+  </si>
+  <si>
+    <t>08/03/2008</t>
+  </si>
+  <si>
+    <t>Nasty</t>
+  </si>
+  <si>
+    <t>This is the worst motel I have ever stayed in.  Once I booked my room I was stuck.  What I mean by this is that they did not want to give my money back.  The room was nasty.  Had a terrible scent, bugs in the tub, one bed wasn't made, and the refrigerator was unplugged.  After complaining they put me in another room which was clean, but I had a bug  problem.  The guy at the front desk acted like he didn't understand English when I told him that I needed to go to a bug free room.  He made a sarcastic joke and said people from TX are used to those bugs, but I told him not in their room.  I canceled  the next night, but I was told that I couldn't get my money back, so I had to stay again.  I used the bleach and comet to clean out the bathroom again.  I also had to buy some towels b/c every towel in their bathroom, except  1 had some type of hair or spot on it.  Please do yourself a favor and stay somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>This is the worst motel I have ever stayed in.  Once I booked my room I was stuck.  What I mean by this is that they did not want to give my money back.  The room was nasty.  Had a terrible scent, bugs in the tub, one bed wasn't made, and the refrigerator was unplugged.  After complaining they put me in another room which was clean, but I had a bug  problem.  The guy at the front desk acted like he didn't understand English when I told him that I needed to go to a bug free room.  He made a sarcastic joke and said people from TX are used to those bugs, but I told him not in their room.  I canceled  the next night, but I was told that I couldn't get my money back, so I had to stay again.  I used the bleach and comet to clean out the bathroom again.  I also had to buy some towels b/c every towel in their bathroom, except  1 had some type of hair or spot on it.  Please do yourself a favor and stay somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r2150666-Motel_6_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>2150666</t>
+  </si>
+  <si>
+    <t>06/02/2004</t>
+  </si>
+  <si>
+    <t>Stinky and noisy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was very uncomfortable stay. Couldn't sleep. Room smelled like cheap disinfectant. The hotel is right off from freeway and very noisy. Had to ask front desk for towels. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r1150529-Motel_6_Lancaster-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>1150529</t>
+  </si>
+  <si>
+    <t>07/27/2003</t>
+  </si>
+  <si>
+    <t>Unless you are a drug dealer or hooker, STAY AWAY!!!</t>
+  </si>
+  <si>
+    <t>I cannot stress enough, this was by far the worst motel experience of my family's lives!! We were not expecting a 5 star hotel by any means, however, we figured by the Motel 6 reputation in the past, we would get a small, clean, unremarkable room at a decent price. HA! We arrived at the Lancaster Motel 6 a little before 11 PM. It was in a relatively OK area, right off the freeway. And, from the entrance, looked fine. We should have been suspicious at first by the cruising around of several vehicles that were not in the greatest condition. But, we were exhausted and just wanted to check in. After all, how bad could it be? 
+Wrong question to ask of this place. After checking in with a woman behind a bulletproof glass vestibule, the kind used by 24-hour gas stations, we unloaded our luggage into the room. It was after 11 PM by this point, and there were people roaming around as if it were 5 in the afternoon. And this was on a Wed. night! Small children were unattended by any visible adults, drug deals were being made blatently, and although I am in now way pretentious, the calibur of people was quite terrifying. I don't think anyone there had showered in the last few days (although after seeing the mold in our shower, I don't blame them). The final straw was my husband's discovery of...I cannot stress enough, this was by far the worst motel experience of my family's lives!! We were not expecting a 5 star hotel by any means, however, we figured by the Motel 6 reputation in the past, we would get a small, clean, unremarkable room at a decent price. HA! We arrived at the Lancaster Motel 6 a little before 11 PM. It was in a relatively OK area, right off the freeway. And, from the entrance, looked fine. We should have been suspicious at first by the cruising around of several vehicles that were not in the greatest condition. But, we were exhausted and just wanted to check in. After all, how bad could it be? Wrong question to ask of this place. After checking in with a woman behind a bulletproof glass vestibule, the kind used by 24-hour gas stations, we unloaded our luggage into the room. It was after 11 PM by this point, and there were people roaming around as if it were 5 in the afternoon. And this was on a Wed. night! Small children were unattended by any visible adults, drug deals were being made blatently, and although I am in now way pretentious, the calibur of people was quite terrifying. I don't think anyone there had showered in the last few days (although after seeing the mold in our shower, I don't blame them). The final straw was my husband's discovery of a syringe on the stairs leading to our room. He locked us in our room with strict instructions to NOT Go OUTSIDE UNDER ANY CIRCUMSTANCES. The room was disgusting, and I lay down my own blanket on top of the cirgarette burned, stained comforter on the bed in fear of what diseases might be on it. As my children and I sat huddled on the bed, I attempted to look up other hotels in the phone book. As soon as I grabbed the phone book, my hand was in some foreign sticky substance. I don't even want to know what it was. The walls were filthy, the shower as I previously stated, had tons of mold and it smelled as if someone had smoked 100 packs of cigarettes in there just prior to our arrival (apparently putting them out on the comforter!) Finally, my husband called telling me not to unpack anything, that he had found a better hotel. When we went to get a refund, even the woman who worked there said she wondered why we were staying there. How pathetic that the employees warn against staying there! It wasn't all that cheap either! $160 for 3 nights! We found a Holiday Inn in nearby Palmdale, and after hearing about our ordeal, shaved $30 off their usual room rate for us. Thank God! So, unless you are a drug dealer, pimp or just want to fear for your life in general, do NOT stay at this motel!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I cannot stress enough, this was by far the worst motel experience of my family's lives!! We were not expecting a 5 star hotel by any means, however, we figured by the Motel 6 reputation in the past, we would get a small, clean, unremarkable room at a decent price. HA! We arrived at the Lancaster Motel 6 a little before 11 PM. It was in a relatively OK area, right off the freeway. And, from the entrance, looked fine. We should have been suspicious at first by the cruising around of several vehicles that were not in the greatest condition. But, we were exhausted and just wanted to check in. After all, how bad could it be? 
+Wrong question to ask of this place. After checking in with a woman behind a bulletproof glass vestibule, the kind used by 24-hour gas stations, we unloaded our luggage into the room. It was after 11 PM by this point, and there were people roaming around as if it were 5 in the afternoon. And this was on a Wed. night! Small children were unattended by any visible adults, drug deals were being made blatently, and although I am in now way pretentious, the calibur of people was quite terrifying. I don't think anyone there had showered in the last few days (although after seeing the mold in our shower, I don't blame them). The final straw was my husband's discovery of...I cannot stress enough, this was by far the worst motel experience of my family's lives!! We were not expecting a 5 star hotel by any means, however, we figured by the Motel 6 reputation in the past, we would get a small, clean, unremarkable room at a decent price. HA! We arrived at the Lancaster Motel 6 a little before 11 PM. It was in a relatively OK area, right off the freeway. And, from the entrance, looked fine. We should have been suspicious at first by the cruising around of several vehicles that were not in the greatest condition. But, we were exhausted and just wanted to check in. After all, how bad could it be? Wrong question to ask of this place. After checking in with a woman behind a bulletproof glass vestibule, the kind used by 24-hour gas stations, we unloaded our luggage into the room. It was after 11 PM by this point, and there were people roaming around as if it were 5 in the afternoon. And this was on a Wed. night! Small children were unattended by any visible adults, drug deals were being made blatently, and although I am in now way pretentious, the calibur of people was quite terrifying. I don't think anyone there had showered in the last few days (although after seeing the mold in our shower, I don't blame them). The final straw was my husband's discovery of a syringe on the stairs leading to our room. He locked us in our room with strict instructions to NOT Go OUTSIDE UNDER ANY CIRCUMSTANCES. The room was disgusting, and I lay down my own blanket on top of the cirgarette burned, stained comforter on the bed in fear of what diseases might be on it. As my children and I sat huddled on the bed, I attempted to look up other hotels in the phone book. As soon as I grabbed the phone book, my hand was in some foreign sticky substance. I don't even want to know what it was. The walls were filthy, the shower as I previously stated, had tons of mold and it smelled as if someone had smoked 100 packs of cigarettes in there just prior to our arrival (apparently putting them out on the comforter!) Finally, my husband called telling me not to unpack anything, that he had found a better hotel. When we went to get a refund, even the woman who worked there said she wondered why we were staying there. How pathetic that the employees warn against staying there! It wasn't all that cheap either! $160 for 3 nights! We found a Holiday Inn in nearby Palmdale, and after hearing about our ordeal, shaved $30 off their usual room rate for us. Thank God! So, unless you are a drug dealer, pimp or just want to fear for your life in general, do NOT stay at this motel!!!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +944,870 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5905</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5905</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5905</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5905</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5905</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5905</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5905</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5905</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5905</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5905</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5905</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5905</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5905</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5905</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_535.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_535.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Leon1958</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Andre V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r353989638-Motel_6_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>kim w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r347241101-Motel_6_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>I went to Lancaster for a funeral and needed somewhere to stay for 2 nights.  My reservation was confirm for 2 nights and when I check in i advised the front desk.  Me and my kids stayed 1 night and the next night they gave my room away and told me I need to come back the next day to get my stuff when I demanded my things they called   the police.  The police was on my side and made them give my things back.  I am a travel agent and I will never stay here again nor recommend this motel to any of my clients.More</t>
   </si>
   <si>
+    <t>Renee J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r303799300-Motel_6_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Ajay N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r274927725-Motel_6_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -279,6 +294,9 @@
     <t>We stayed here during the memorial day weekend. Needed a place to stay for a night to continue our going around LA. Even though we were assured our room was non-smoking, it smelt like one - real bad. They had attempted to get rid of the cigarette smell by spraying some air fragrance but failed awefully!If you promise your customer a non-smoking room, ensure they get one.More</t>
   </si>
   <si>
+    <t>Claudette P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r226757366-Motel_6_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -297,6 +315,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>truckermamma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r154796446-Motel_6_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -315,6 +336,9 @@
     <t>I'm a trucker and stay in many motel 6's. This was by far the worst yet. The noise was awful from the stairways. The manager was rude about the reservation that I and my company had made sure to reserve several times and was told check in was afternoon. That they didn't haves a room after my checking several times on my reservation. Was then told they had a room but it was down for . maintenance. The floor was dirty and nasty. Could not take off my socks to walk around. The room smelled old and mildew. One of the beds looked like it had been sleept in. I was so tired I tried to sleep but was woken up several times by noise from people outside. Then children screaming at the top of their lungs I'm the pool. I need to sleep in the day time because of my hours of service as a driver. Be  aware this motel is awful!More</t>
   </si>
   <si>
+    <t>dprell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r152446753-Motel_6_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -333,6 +357,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>April S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r134156899-Motel_6_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -354,6 +381,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Andy R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r119893444-Motel_6_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -369,6 +399,9 @@
     <t>We're from sleepy England so places like this I thought only existed in US movies (bad ones).The place was full of dealers, a Hispanic guy had his door open on the landing standing in his underwear for everyone to see walking up the stairs mumbling something I couldnt understand. Walking into the room to be fair was acceptable. Basic and in my view clean. This was an emergency stop for us so didn't expect the Ritz.Constant car alarms, shouting and slamming doors add to the sense of menace and unpleasantness of the stay. If you can I would avoid.The rate was $44(£28) so is cheap</t>
   </si>
   <si>
+    <t>mbob79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r114976548-Motel_6_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -390,6 +423,9 @@
     <t>Everything you read in the previous reviews is accurate. We were headed to Palm Springs from San Simeon and decided to stop for the night around Palmdale. However, by the time we reached Lancaster, we were tired and decided to grab a room there. Big mistake. After a luke-warm reception at the check-in counter and a relatively high rate of $55/night for Motel 6, the first thing we encountered on our way to our room was a guy in a pickup truck in the parking lot BLASTING rap music at full volume and bass. We then saw a guy in dreadlocks come out from a room and it appears by his conversation with the occupant that they had just completed a drug deal. The pool was extremely filthy and when I walked up the stairs to the second level, I saw a girl about 5 years old completely alone standing by the staircase with no adult supervision (similar to what a previous reviewer had described). Our "non-smoking" room was about as smokey as a room could be, and the sink would not drain properly. After dinner, we decided to walk down the street where we saw a woman sitting on her front porch, clearly on drugs, while her toddler son was trying to climb over the front gate. Some of the people in the area looked dangerous seemed to loiter around the hotel and restaurant parking lots. The cherry on...Everything you read in the previous reviews is accurate. We were headed to Palm Springs from San Simeon and decided to stop for the night around Palmdale. However, by the time we reached Lancaster, we were tired and decided to grab a room there. Big mistake. After a luke-warm reception at the check-in counter and a relatively high rate of $55/night for Motel 6, the first thing we encountered on our way to our room was a guy in a pickup truck in the parking lot BLASTING rap music at full volume and bass. We then saw a guy in dreadlocks come out from a room and it appears by his conversation with the occupant that they had just completed a drug deal. The pool was extremely filthy and when I walked up the stairs to the second level, I saw a girl about 5 years old completely alone standing by the staircase with no adult supervision (similar to what a previous reviewer had described). Our "non-smoking" room was about as smokey as a room could be, and the sink would not drain properly. After dinner, we decided to walk down the street where we saw a woman sitting on her front porch, clearly on drugs, while her toddler son was trying to climb over the front gate. Some of the people in the area looked dangerous seemed to loiter around the hotel and restaurant parking lots. The cherry on the top was when we were awakened during the night on three separate occasions to what we believe were the sound of gunshots. The motel next door looked a bit better and seemed to be cheaper, and other parts of Lancaster seemed reasonably clean and safe. However, Palmdale is only a few minutes down the road, and it seems like a much smaller and more rural area (i.e. safer). Unless your standards are extremely low (i.e. you're at home in the ghetto), I would avoid this place at all costs. It's more of the kind of experience I'd expect to find in south-central LA... only it's not. OK, you've been warned.More</t>
   </si>
   <si>
+    <t>latarchau</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r18590932-Motel_6_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -411,6 +447,9 @@
     <t>This is the worst motel I have ever stayed in.  Once I booked my room I was stuck.  What I mean by this is that they did not want to give my money back.  The room was nasty.  Had a terrible scent, bugs in the tub, one bed wasn't made, and the refrigerator was unplugged.  After complaining they put me in another room which was clean, but I had a bug  problem.  The guy at the front desk acted like he didn't understand English when I told him that I needed to go to a bug free room.  He made a sarcastic joke and said people from TX are used to those bugs, but I told him not in their room.  I canceled  the next night, but I was told that I couldn't get my money back, so I had to stay again.  I used the bleach and comet to clean out the bathroom again.  I also had to buy some towels b/c every towel in their bathroom, except  1 had some type of hair or spot on it.  Please do yourself a favor and stay somewhere else.More</t>
   </si>
   <si>
+    <t>Rreviewer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r2150666-Motel_6_Lancaster-Lancaster_California.html</t>
   </si>
   <si>
@@ -424,6 +463,9 @@
   </si>
   <si>
     <t xml:space="preserve">It was very uncomfortable stay. Couldn't sleep. Room smelled like cheap disinfectant. The hotel is right off from freeway and very noisy. Had to ask front desk for towels. </t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d77511-r1150529-Motel_6_Lancaster-Lancaster_California.html</t>
@@ -948,43 +990,47 @@
       <c r="A2" t="n">
         <v>5905</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -998,50 +1044,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5905</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -1059,50 +1109,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5905</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -1118,56 +1172,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5905</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1181,50 +1239,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5905</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1240,56 +1302,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5905</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1309,41 +1375,45 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5905</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
@@ -1372,50 +1442,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5905</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -1439,50 +1513,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5905</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -1506,41 +1584,45 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5905</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
@@ -1569,50 +1651,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5905</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="O12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -1632,50 +1718,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5905</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -1699,41 +1789,45 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5905</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
@@ -1752,41 +1846,45 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5905</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>149</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="K15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
@@ -1805,7 +1903,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
